--- a/Input/VBWIMInput.xlsx
+++ b/Input/VBWIMInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E3582E-161D-457D-9220-70AF7FAFC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF447BCF-7F1E-4619-BFF4-952659F6976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -534,44 +534,12 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>410</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Input/VBWIMInput.xlsx
+++ b/Input/VBWIMInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF447BCF-7F1E-4619-BFF4-952659F6976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80190EF3-2AFD-4AD0-A4C7-0AA9A73F127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24480" yWindow="1665" windowWidth="22605" windowHeight="14490" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>AGBBox.Mn.S30</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>ClassType</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -461,16 +461,16 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
@@ -508,12 +508,12 @@
         <v>9</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -534,14 +534,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Input/VBWIMInput.xlsx
+++ b/Input/VBWIMInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80190EF3-2AFD-4AD0-A4C7-0AA9A73F127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9044A-2A46-4EFE-A0A2-57E86D993501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24480" yWindow="1665" windowWidth="22605" windowHeight="14490" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5196" yWindow="2820" windowWidth="16572" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RunDyn</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>ILs</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>Observed</t>
   </si>
   <si>
     <t>NumAnalyses</t>
@@ -461,89 +455,82 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>441</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -552,10 +539,9 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -564,10 +550,9 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -576,8 +561,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Input/VBWIMInput.xlsx
+++ b/Input/VBWIMInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9044A-2A46-4EFE-A0A2-57E86D993501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE039E1-CDA2-461D-AD1A-DF17DC1BE808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5196" yWindow="2820" windowWidth="16572" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5148" yWindow="2736" windowWidth="16548" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>441</v>
+        <v>8035</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>8</v>

--- a/Input/VBWIMInput.xlsx
+++ b/Input/VBWIMInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE039E1-CDA2-461D-AD1A-DF17DC1BE808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8129873-E8BE-46D8-BAC3-F9AF4EB108DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="2736" windowWidth="16548" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40110" yWindow="4200" windowWidth="16545" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -63,13 +63,13 @@
     <t>WIM</t>
   </si>
   <si>
-    <t>AGBBox.Mn.S30</t>
-  </si>
-  <si>
     <t>ClassType</t>
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>AGBBox.Mp.S40</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,15 +498,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>8035</v>
+        <v>993300</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
